--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem1/123/correct_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem1/123/correct_predictions_123.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,21 +497,21 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+          <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -527,51 +527,51 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Live stream video frame rate less than 9Hz Fly with caution .</t>
+          <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8-10</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+          <t>Loading database failed Geo-awareness function degraded .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>Geo-awareness function degraded</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -587,29 +587,119 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>13</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Live stream video frame rate less than 9Hz Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Fly with caution</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8-10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>19</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Flight altitude restricted to nnn</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11-15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>21</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Ambient Light is too weak</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6-10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>22</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Ambient Light is too weak</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>6-10</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>Event</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem1/123/correct_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem1/123/correct_predictions_123.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,21 +497,21 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode .</t>
+          <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Aircraft switched to ATTI mode</t>
+          <t>Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -527,51 +527,51 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+          <t>Live stream video frame rate less than 9Hz Fly with caution .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>8-10</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Loading database failed Geo-awareness function degraded .</t>
+          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Geo-awareness function degraded</t>
+          <t>Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -587,119 +587,29 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Live stream video frame rate less than 9Hz Fly with caution .</t>
+          <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8-10</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>19</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone Flight altitude restricted to nnn .</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Flight altitude restricted to nnn</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>11-15</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>21</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Forward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Ambient Light is too weak</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>6-10</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>22</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Backward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Ambient Light is too weak</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>6-10</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
